--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$45</f>
+              <f>'Kosten'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$45</f>
+              <f>'Kosten'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$45</f>
+              <f>'Kosten'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$45</f>
+              <f>'Kosten'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>57900</v>
+        <v>32400</v>
       </c>
       <c r="C2" t="n">
-        <v>29000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>41550</v>
+        <v>30800</v>
       </c>
       <c r="C3" t="n">
-        <v>29000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>34875</v>
+        <v>30400</v>
       </c>
       <c r="C4" t="n">
-        <v>29000</v>
+        <v>28400</v>
       </c>
     </row>
     <row r="5">
@@ -654,450 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>34825</v>
+        <v>30400</v>
       </c>
       <c r="C5" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>33900</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>33775</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C9" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C10" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C11" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C13" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B14" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C14" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>70</v>
-      </c>
-      <c r="B15" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>75</v>
-      </c>
-      <c r="B16" t="n">
-        <v>33500</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>80</v>
-      </c>
-      <c r="B17" t="n">
-        <v>33450</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>85</v>
-      </c>
-      <c r="B18" t="n">
-        <v>33450</v>
-      </c>
-      <c r="C18" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>90</v>
-      </c>
-      <c r="B19" t="n">
-        <v>33100</v>
-      </c>
-      <c r="C19" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>95</v>
-      </c>
-      <c r="B20" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C20" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>100</v>
-      </c>
-      <c r="B21" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C21" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>105</v>
-      </c>
-      <c r="B22" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>110</v>
-      </c>
-      <c r="B23" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C23" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>115</v>
-      </c>
-      <c r="B24" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C24" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>120</v>
-      </c>
-      <c r="B25" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C25" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>125</v>
-      </c>
-      <c r="B26" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C26" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>130</v>
-      </c>
-      <c r="B27" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C27" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>135</v>
-      </c>
-      <c r="B28" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C28" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>140</v>
-      </c>
-      <c r="B29" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C29" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>145</v>
-      </c>
-      <c r="B30" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C30" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>150</v>
-      </c>
-      <c r="B31" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C31" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>155</v>
-      </c>
-      <c r="B32" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C32" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>160</v>
-      </c>
-      <c r="B33" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C33" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>165</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C34" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>170</v>
-      </c>
-      <c r="B35" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C35" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>175</v>
-      </c>
-      <c r="B36" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C36" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>180</v>
-      </c>
-      <c r="B37" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C37" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>185</v>
-      </c>
-      <c r="B38" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C38" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>190</v>
-      </c>
-      <c r="B39" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>195</v>
-      </c>
-      <c r="B40" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C40" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>200</v>
-      </c>
-      <c r="B41" t="n">
-        <v>33050</v>
-      </c>
-      <c r="C41" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>205</v>
-      </c>
-      <c r="B42" t="n">
-        <v>32825</v>
-      </c>
-      <c r="C42" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>210</v>
-      </c>
-      <c r="B43" t="n">
-        <v>32650</v>
-      </c>
-      <c r="C43" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>215</v>
-      </c>
-      <c r="B44" t="n">
-        <v>32650</v>
-      </c>
-      <c r="C44" t="n">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>220</v>
-      </c>
-      <c r="B45" t="n">
-        <v>32650</v>
-      </c>
-      <c r="C45" t="n">
-        <v>29000</v>
+        <v>28400</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$5</f>
+              <f>'Kosten'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$5</f>
+              <f>'Kosten'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$5</f>
+              <f>'Kosten'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$5</f>
+              <f>'Kosten'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="C2" t="n">
-        <v>28400</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>30800</v>
+        <v>31600</v>
       </c>
       <c r="C3" t="n">
-        <v>28400</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>30400</v>
+        <v>31400</v>
       </c>
       <c r="C4" t="n">
-        <v>28400</v>
+        <v>27800</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,21 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>30400</v>
+        <v>31100</v>
       </c>
       <c r="C5" t="n">
-        <v>28400</v>
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27800</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$6</f>
+              <f>'Kosten'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$6</f>
+              <f>'Kosten'!$B$2:$B$45</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$6</f>
+              <f>'Kosten'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$6</f>
+              <f>'Kosten'!$C$2:$C$45</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>32600</v>
+        <v>31031</v>
       </c>
       <c r="C2" t="n">
-        <v>27800</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>31600</v>
+        <v>31029</v>
       </c>
       <c r="C3" t="n">
-        <v>27800</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>31400</v>
+        <v>31018</v>
       </c>
       <c r="C4" t="n">
-        <v>27800</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>31100</v>
+        <v>31015</v>
       </c>
       <c r="C5" t="n">
-        <v>27800</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,439 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>31000</v>
+        <v>31014</v>
       </c>
       <c r="C6" t="n">
-        <v>27800</v>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31013</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>31013</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31012</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31011</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31009</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>31009</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31007</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31006</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185</v>
+      </c>
+      <c r="B38" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>190</v>
+      </c>
+      <c r="B39" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>210</v>
+      </c>
+      <c r="B43" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C44" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="n">
+        <v>31005</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31000</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$45</f>
+              <f>'Kosten'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$45</f>
+              <f>'Kosten'!$B$2:$B$101</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$45</f>
+              <f>'Kosten'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$45</f>
+              <f>'Kosten'!$C$2:$C$101</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>31031</v>
+        <v>72150</v>
       </c>
       <c r="C2" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>31029</v>
+        <v>68950</v>
       </c>
       <c r="C3" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>31018</v>
+        <v>68200</v>
       </c>
       <c r="C4" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>31015</v>
+        <v>67400</v>
       </c>
       <c r="C5" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>31014</v>
+        <v>66500</v>
       </c>
       <c r="C6" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>31013</v>
+        <v>66400</v>
       </c>
       <c r="C7" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +687,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>31013</v>
+        <v>66400</v>
       </c>
       <c r="C8" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +698,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>31012</v>
+        <v>66200</v>
       </c>
       <c r="C9" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +709,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>31011</v>
+        <v>66200</v>
       </c>
       <c r="C10" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +720,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>31009</v>
+        <v>65550</v>
       </c>
       <c r="C11" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +731,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>31009</v>
+        <v>65200</v>
       </c>
       <c r="C12" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +742,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>31009</v>
+        <v>65200</v>
       </c>
       <c r="C13" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +753,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>31007</v>
+        <v>64500</v>
       </c>
       <c r="C14" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +764,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>31006</v>
+        <v>64400</v>
       </c>
       <c r="C15" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +775,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>31006</v>
+        <v>64300</v>
       </c>
       <c r="C16" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +786,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>31006</v>
+        <v>64300</v>
       </c>
       <c r="C17" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +797,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>31006</v>
+        <v>64300</v>
       </c>
       <c r="C18" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +808,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>31006</v>
+        <v>64300</v>
       </c>
       <c r="C19" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +819,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>31006</v>
+        <v>64200</v>
       </c>
       <c r="C20" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>31006</v>
+        <v>64200</v>
       </c>
       <c r="C21" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +841,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>31006</v>
+        <v>64200</v>
       </c>
       <c r="C22" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +852,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>31006</v>
+        <v>64100</v>
       </c>
       <c r="C23" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>31005</v>
+        <v>64100</v>
       </c>
       <c r="C24" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>31005</v>
+        <v>64100</v>
       </c>
       <c r="C25" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +885,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>31005</v>
+        <v>64100</v>
       </c>
       <c r="C26" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>31005</v>
+        <v>64100</v>
       </c>
       <c r="C27" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +907,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C28" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +918,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C29" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +929,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C30" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +940,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C31" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +951,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C32" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +962,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C33" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +973,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C34" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +984,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C35" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +995,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C36" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1006,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C37" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1017,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C38" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1028,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C39" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1039,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C40" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1050,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C41" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1061,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C42" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1072,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C43" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1083,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C44" t="n">
-        <v>31000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1094,626 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>31005</v>
+        <v>64000</v>
       </c>
       <c r="C45" t="n">
-        <v>31000</v>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>225</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>230</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>240</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>245</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C50" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>255</v>
+      </c>
+      <c r="B52" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>260</v>
+      </c>
+      <c r="B53" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>265</v>
+      </c>
+      <c r="B54" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>270</v>
+      </c>
+      <c r="B55" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>275</v>
+      </c>
+      <c r="B56" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>280</v>
+      </c>
+      <c r="B57" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>285</v>
+      </c>
+      <c r="B58" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>290</v>
+      </c>
+      <c r="B59" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C59" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>295</v>
+      </c>
+      <c r="B60" t="n">
+        <v>63900</v>
+      </c>
+      <c r="C60" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>63650</v>
+      </c>
+      <c r="C61" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>305</v>
+      </c>
+      <c r="B62" t="n">
+        <v>63500</v>
+      </c>
+      <c r="C62" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>310</v>
+      </c>
+      <c r="B63" t="n">
+        <v>63400</v>
+      </c>
+      <c r="C63" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>315</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>320</v>
+      </c>
+      <c r="B65" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C65" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>325</v>
+      </c>
+      <c r="B66" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C66" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>330</v>
+      </c>
+      <c r="B67" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C67" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>335</v>
+      </c>
+      <c r="B68" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C68" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>340</v>
+      </c>
+      <c r="B69" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C69" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>345</v>
+      </c>
+      <c r="B70" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C70" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>350</v>
+      </c>
+      <c r="B71" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C71" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>355</v>
+      </c>
+      <c r="B72" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C72" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>360</v>
+      </c>
+      <c r="B73" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C73" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>365</v>
+      </c>
+      <c r="B74" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C74" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>370</v>
+      </c>
+      <c r="B75" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>380</v>
+      </c>
+      <c r="B77" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>385</v>
+      </c>
+      <c r="B78" t="n">
+        <v>63000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>390</v>
+      </c>
+      <c r="B79" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C79" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>395</v>
+      </c>
+      <c r="B80" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C80" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>400</v>
+      </c>
+      <c r="B81" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C81" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>405</v>
+      </c>
+      <c r="B82" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C82" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>410</v>
+      </c>
+      <c r="B83" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C83" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>415</v>
+      </c>
+      <c r="B84" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C84" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>420</v>
+      </c>
+      <c r="B85" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C85" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>425</v>
+      </c>
+      <c r="B86" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C86" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>430</v>
+      </c>
+      <c r="B87" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C87" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>435</v>
+      </c>
+      <c r="B88" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C88" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C89" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>445</v>
+      </c>
+      <c r="B90" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C90" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>450</v>
+      </c>
+      <c r="B91" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C91" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>455</v>
+      </c>
+      <c r="B92" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C92" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>460</v>
+      </c>
+      <c r="B93" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C93" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>465</v>
+      </c>
+      <c r="B94" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C94" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>470</v>
+      </c>
+      <c r="B95" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C95" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C96" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>480</v>
+      </c>
+      <c r="B97" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C97" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>485</v>
+      </c>
+      <c r="B98" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C98" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>490</v>
+      </c>
+      <c r="B99" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C99" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>495</v>
+      </c>
+      <c r="B100" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C100" t="n">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>500</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C101" t="n">
+        <v>62000</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>72150</v>
+        <v>72400</v>
       </c>
       <c r="C2" t="n">
         <v>62000</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>68950</v>
+        <v>69050</v>
       </c>
       <c r="C3" t="n">
         <v>62000</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>68200</v>
+        <v>68250</v>
       </c>
       <c r="C4" t="n">
         <v>62000</v>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>67400</v>
+        <v>67600</v>
       </c>
       <c r="C5" t="n">
         <v>62000</v>
@@ -665,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>66500</v>
+        <v>67400</v>
       </c>
       <c r="C6" t="n">
         <v>62000</v>
@@ -676,7 +676,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>66400</v>
+        <v>66900</v>
       </c>
       <c r="C7" t="n">
         <v>62000</v>
@@ -687,7 +687,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>66400</v>
+        <v>65300</v>
       </c>
       <c r="C8" t="n">
         <v>62000</v>
@@ -698,7 +698,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>66200</v>
+        <v>65200</v>
       </c>
       <c r="C9" t="n">
         <v>62000</v>
@@ -709,7 +709,7 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>66200</v>
+        <v>64900</v>
       </c>
       <c r="C10" t="n">
         <v>62000</v>
@@ -720,7 +720,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>65550</v>
+        <v>64900</v>
       </c>
       <c r="C11" t="n">
         <v>62000</v>
@@ -731,7 +731,7 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>65200</v>
+        <v>64600</v>
       </c>
       <c r="C12" t="n">
         <v>62000</v>
@@ -742,7 +742,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>65200</v>
+        <v>64500</v>
       </c>
       <c r="C13" t="n">
         <v>62000</v>
@@ -764,7 +764,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>64400</v>
+        <v>64500</v>
       </c>
       <c r="C15" t="n">
         <v>62000</v>
@@ -775,7 +775,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>64300</v>
+        <v>64500</v>
       </c>
       <c r="C16" t="n">
         <v>62000</v>
@@ -786,7 +786,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>64300</v>
+        <v>64200</v>
       </c>
       <c r="C17" t="n">
         <v>62000</v>
@@ -797,7 +797,7 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="C18" t="n">
         <v>62000</v>
@@ -808,7 +808,7 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>64300</v>
+        <v>64000</v>
       </c>
       <c r="C19" t="n">
         <v>62000</v>
@@ -819,7 +819,7 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>64200</v>
+        <v>63800</v>
       </c>
       <c r="C20" t="n">
         <v>62000</v>
@@ -830,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>64200</v>
+        <v>63700</v>
       </c>
       <c r="C21" t="n">
         <v>62000</v>
@@ -841,7 +841,7 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>64200</v>
+        <v>63600</v>
       </c>
       <c r="C22" t="n">
         <v>62000</v>
@@ -852,7 +852,7 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>64100</v>
+        <v>63400</v>
       </c>
       <c r="C23" t="n">
         <v>62000</v>
@@ -863,7 +863,7 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>64100</v>
+        <v>63400</v>
       </c>
       <c r="C24" t="n">
         <v>62000</v>
@@ -874,7 +874,7 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>64100</v>
+        <v>63400</v>
       </c>
       <c r="C25" t="n">
         <v>62000</v>
@@ -885,7 +885,7 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="C26" t="n">
         <v>62000</v>
@@ -896,7 +896,7 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>64100</v>
+        <v>63300</v>
       </c>
       <c r="C27" t="n">
         <v>62000</v>
@@ -907,7 +907,7 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C28" t="n">
         <v>62000</v>
@@ -918,7 +918,7 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C29" t="n">
         <v>62000</v>
@@ -929,7 +929,7 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C30" t="n">
         <v>62000</v>
@@ -940,7 +940,7 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C31" t="n">
         <v>62000</v>
@@ -951,7 +951,7 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C32" t="n">
         <v>62000</v>
@@ -962,7 +962,7 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C33" t="n">
         <v>62000</v>
@@ -973,7 +973,7 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C34" t="n">
         <v>62000</v>
@@ -984,7 +984,7 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>64000</v>
+        <v>63300</v>
       </c>
       <c r="C35" t="n">
         <v>62000</v>
@@ -995,7 +995,7 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>64000</v>
+        <v>63200</v>
       </c>
       <c r="C36" t="n">
         <v>62000</v>
@@ -1006,7 +1006,7 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>64000</v>
+        <v>63200</v>
       </c>
       <c r="C37" t="n">
         <v>62000</v>
@@ -1017,7 +1017,7 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="C38" t="n">
         <v>62000</v>
@@ -1028,7 +1028,7 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="C39" t="n">
         <v>62000</v>
@@ -1039,7 +1039,7 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="C40" t="n">
         <v>62000</v>
@@ -1050,7 +1050,7 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="C41" t="n">
         <v>62000</v>
@@ -1061,7 +1061,7 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>64000</v>
+        <v>63100</v>
       </c>
       <c r="C42" t="n">
         <v>62000</v>
@@ -1072,7 +1072,7 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C43" t="n">
         <v>62000</v>
@@ -1083,7 +1083,7 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C44" t="n">
         <v>62000</v>
@@ -1094,7 +1094,7 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C45" t="n">
         <v>62000</v>
@@ -1105,7 +1105,7 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C46" t="n">
         <v>62000</v>
@@ -1116,7 +1116,7 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C47" t="n">
         <v>62000</v>
@@ -1127,7 +1127,7 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C48" t="n">
         <v>62000</v>
@@ -1138,7 +1138,7 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C49" t="n">
         <v>62000</v>
@@ -1149,7 +1149,7 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C50" t="n">
         <v>62000</v>
@@ -1160,7 +1160,7 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C51" t="n">
         <v>62000</v>
@@ -1171,7 +1171,7 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C52" t="n">
         <v>62000</v>
@@ -1182,7 +1182,7 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C53" t="n">
         <v>62000</v>
@@ -1193,7 +1193,7 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C54" t="n">
         <v>62000</v>
@@ -1204,7 +1204,7 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C55" t="n">
         <v>62000</v>
@@ -1215,7 +1215,7 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C56" t="n">
         <v>62000</v>
@@ -1226,7 +1226,7 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C57" t="n">
         <v>62000</v>
@@ -1237,7 +1237,7 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C58" t="n">
         <v>62000</v>
@@ -1248,7 +1248,7 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>64000</v>
+        <v>63000</v>
       </c>
       <c r="C59" t="n">
         <v>62000</v>
@@ -1259,7 +1259,7 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>63900</v>
+        <v>63000</v>
       </c>
       <c r="C60" t="n">
         <v>62000</v>
@@ -1270,7 +1270,7 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>63650</v>
+        <v>63000</v>
       </c>
       <c r="C61" t="n">
         <v>62000</v>
@@ -1281,7 +1281,7 @@
         <v>305</v>
       </c>
       <c r="B62" t="n">
-        <v>63500</v>
+        <v>63000</v>
       </c>
       <c r="C62" t="n">
         <v>62000</v>
@@ -1292,7 +1292,7 @@
         <v>310</v>
       </c>
       <c r="B63" t="n">
-        <v>63400</v>
+        <v>63000</v>
       </c>
       <c r="C63" t="n">
         <v>62000</v>
@@ -1303,7 +1303,7 @@
         <v>315</v>
       </c>
       <c r="B64" t="n">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="C64" t="n">
         <v>62000</v>
@@ -1314,7 +1314,7 @@
         <v>320</v>
       </c>
       <c r="B65" t="n">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="C65" t="n">
         <v>62000</v>
@@ -1325,7 +1325,7 @@
         <v>325</v>
       </c>
       <c r="B66" t="n">
-        <v>63300</v>
+        <v>63000</v>
       </c>
       <c r="C66" t="n">
         <v>62000</v>
@@ -1336,7 +1336,7 @@
         <v>330</v>
       </c>
       <c r="B67" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C67" t="n">
         <v>62000</v>
@@ -1347,7 +1347,7 @@
         <v>335</v>
       </c>
       <c r="B68" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C68" t="n">
         <v>62000</v>
@@ -1358,7 +1358,7 @@
         <v>340</v>
       </c>
       <c r="B69" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C69" t="n">
         <v>62000</v>
@@ -1369,7 +1369,7 @@
         <v>345</v>
       </c>
       <c r="B70" t="n">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="C70" t="n">
         <v>62000</v>
@@ -1391,7 +1391,7 @@
         <v>355</v>
       </c>
       <c r="B72" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C72" t="n">
         <v>62000</v>
@@ -1402,7 +1402,7 @@
         <v>360</v>
       </c>
       <c r="B73" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C73" t="n">
         <v>62000</v>
@@ -1413,7 +1413,7 @@
         <v>365</v>
       </c>
       <c r="B74" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C74" t="n">
         <v>62000</v>
@@ -1424,7 +1424,7 @@
         <v>370</v>
       </c>
       <c r="B75" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C75" t="n">
         <v>62000</v>
@@ -1435,7 +1435,7 @@
         <v>375</v>
       </c>
       <c r="B76" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C76" t="n">
         <v>62000</v>
@@ -1446,7 +1446,7 @@
         <v>380</v>
       </c>
       <c r="B77" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C77" t="n">
         <v>62000</v>
@@ -1457,7 +1457,7 @@
         <v>385</v>
       </c>
       <c r="B78" t="n">
-        <v>63000</v>
+        <v>62900</v>
       </c>
       <c r="C78" t="n">
         <v>62000</v>
@@ -1545,7 +1545,7 @@
         <v>425</v>
       </c>
       <c r="B86" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C86" t="n">
         <v>62000</v>
@@ -1556,7 +1556,7 @@
         <v>430</v>
       </c>
       <c r="B87" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C87" t="n">
         <v>62000</v>
@@ -1567,7 +1567,7 @@
         <v>435</v>
       </c>
       <c r="B88" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C88" t="n">
         <v>62000</v>
@@ -1578,7 +1578,7 @@
         <v>440</v>
       </c>
       <c r="B89" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C89" t="n">
         <v>62000</v>
@@ -1589,7 +1589,7 @@
         <v>445</v>
       </c>
       <c r="B90" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C90" t="n">
         <v>62000</v>
@@ -1600,7 +1600,7 @@
         <v>450</v>
       </c>
       <c r="B91" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C91" t="n">
         <v>62000</v>
@@ -1611,7 +1611,7 @@
         <v>455</v>
       </c>
       <c r="B92" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C92" t="n">
         <v>62000</v>
@@ -1622,7 +1622,7 @@
         <v>460</v>
       </c>
       <c r="B93" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C93" t="n">
         <v>62000</v>
@@ -1633,7 +1633,7 @@
         <v>465</v>
       </c>
       <c r="B94" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C94" t="n">
         <v>62000</v>
@@ -1644,7 +1644,7 @@
         <v>470</v>
       </c>
       <c r="B95" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C95" t="n">
         <v>62000</v>
@@ -1655,7 +1655,7 @@
         <v>475</v>
       </c>
       <c r="B96" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C96" t="n">
         <v>62000</v>
@@ -1666,7 +1666,7 @@
         <v>480</v>
       </c>
       <c r="B97" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C97" t="n">
         <v>62000</v>
@@ -1677,7 +1677,7 @@
         <v>485</v>
       </c>
       <c r="B98" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C98" t="n">
         <v>62000</v>
@@ -1688,7 +1688,7 @@
         <v>490</v>
       </c>
       <c r="B99" t="n">
-        <v>62900</v>
+        <v>62800</v>
       </c>
       <c r="C99" t="n">
         <v>62000</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,9 +621,20 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
+        <v>15800</v>
+      </c>
+      <c r="C2" t="n">
         <v>15500</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15500</v>
+      </c>
+      <c r="C3" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,20 +621,9 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="C2" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>15500</v>
-      </c>
-      <c r="C3" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$101</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$101</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,1099 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15500</v>
+        <v>34700</v>
       </c>
       <c r="C2" t="n">
-        <v>15500</v>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33400</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32500</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31900</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31800</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31800</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31800</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31700</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31550</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185</v>
+      </c>
+      <c r="B38" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>190</v>
+      </c>
+      <c r="B39" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>210</v>
+      </c>
+      <c r="B43" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C44" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>225</v>
+      </c>
+      <c r="B46" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>230</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>240</v>
+      </c>
+      <c r="B49" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>245</v>
+      </c>
+      <c r="B50" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C50" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>255</v>
+      </c>
+      <c r="B52" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>260</v>
+      </c>
+      <c r="B53" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>265</v>
+      </c>
+      <c r="B54" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>270</v>
+      </c>
+      <c r="B55" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>275</v>
+      </c>
+      <c r="B56" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C56" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>280</v>
+      </c>
+      <c r="B57" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>285</v>
+      </c>
+      <c r="B58" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>290</v>
+      </c>
+      <c r="B59" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C59" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>295</v>
+      </c>
+      <c r="B60" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C60" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C61" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>305</v>
+      </c>
+      <c r="B62" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C62" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>310</v>
+      </c>
+      <c r="B63" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>315</v>
+      </c>
+      <c r="B64" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C64" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>320</v>
+      </c>
+      <c r="B65" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C65" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>325</v>
+      </c>
+      <c r="B66" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C66" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>330</v>
+      </c>
+      <c r="B67" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C67" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>335</v>
+      </c>
+      <c r="B68" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C68" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>340</v>
+      </c>
+      <c r="B69" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>345</v>
+      </c>
+      <c r="B70" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C70" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>350</v>
+      </c>
+      <c r="B71" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C71" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>355</v>
+      </c>
+      <c r="B72" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C72" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>360</v>
+      </c>
+      <c r="B73" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C73" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>365</v>
+      </c>
+      <c r="B74" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C74" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>370</v>
+      </c>
+      <c r="B75" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C75" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C76" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>380</v>
+      </c>
+      <c r="B77" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C77" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>385</v>
+      </c>
+      <c r="B78" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C78" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>390</v>
+      </c>
+      <c r="B79" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C79" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>395</v>
+      </c>
+      <c r="B80" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C80" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>400</v>
+      </c>
+      <c r="B81" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C81" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>405</v>
+      </c>
+      <c r="B82" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C82" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>410</v>
+      </c>
+      <c r="B83" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C83" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>415</v>
+      </c>
+      <c r="B84" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C84" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>420</v>
+      </c>
+      <c r="B85" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C85" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>425</v>
+      </c>
+      <c r="B86" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C86" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>430</v>
+      </c>
+      <c r="B87" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C87" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>435</v>
+      </c>
+      <c r="B88" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C88" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C89" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>445</v>
+      </c>
+      <c r="B90" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C90" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>450</v>
+      </c>
+      <c r="B91" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C91" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>455</v>
+      </c>
+      <c r="B92" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C92" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>460</v>
+      </c>
+      <c r="B93" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C93" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>465</v>
+      </c>
+      <c r="B94" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C94" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>470</v>
+      </c>
+      <c r="B95" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C95" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C96" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>480</v>
+      </c>
+      <c r="B97" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>485</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C98" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>490</v>
+      </c>
+      <c r="B99" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>495</v>
+      </c>
+      <c r="B100" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C100" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>500</v>
+      </c>
+      <c r="B101" t="n">
+        <v>31500</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31000</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -635,6 +635,17 @@
         <v>15900</v>
       </c>
       <c r="C3" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15900</v>
+      </c>
+      <c r="C4" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$4</f>
+              <f>'Kosten'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$4</f>
+              <f>'Kosten'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -635,17 +635,6 @@
         <v>15900</v>
       </c>
       <c r="C3" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>15900</v>
-      </c>
-      <c r="C4" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15900</v>
+        <v>16900</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,9 +632,20 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="C3" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16600</v>
+      </c>
+      <c r="C4" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$4</f>
+              <f>'Kosten'!$B$2:$B$101</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$4</f>
+              <f>'Kosten'!$C$2:$C$101</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16900</v>
+        <v>35900</v>
       </c>
       <c r="C2" t="n">
-        <v>15500</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>16600</v>
+        <v>35700</v>
       </c>
       <c r="C3" t="n">
-        <v>15500</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,1077 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16600</v>
+        <v>34500</v>
       </c>
       <c r="C4" t="n">
-        <v>15500</v>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>34200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>34100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33900</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>33900</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33300</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>190</v>
+      </c>
+      <c r="B39" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>210</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C44" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C45" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>225</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>230</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C47" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>240</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>245</v>
+      </c>
+      <c r="B50" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C50" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C51" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>255</v>
+      </c>
+      <c r="B52" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C52" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>260</v>
+      </c>
+      <c r="B53" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>265</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C54" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>270</v>
+      </c>
+      <c r="B55" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C55" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>275</v>
+      </c>
+      <c r="B56" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C56" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>280</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C57" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>285</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C58" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>290</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C59" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>295</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C60" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C61" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>305</v>
+      </c>
+      <c r="B62" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C62" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>310</v>
+      </c>
+      <c r="B63" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C63" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>315</v>
+      </c>
+      <c r="B64" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C64" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>320</v>
+      </c>
+      <c r="B65" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C65" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>325</v>
+      </c>
+      <c r="B66" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C66" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>330</v>
+      </c>
+      <c r="B67" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C67" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>335</v>
+      </c>
+      <c r="B68" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C68" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>340</v>
+      </c>
+      <c r="B69" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C69" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>345</v>
+      </c>
+      <c r="B70" t="n">
+        <v>32900</v>
+      </c>
+      <c r="C70" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>350</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C71" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>355</v>
+      </c>
+      <c r="B72" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C72" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>360</v>
+      </c>
+      <c r="B73" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C73" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>365</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C74" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>370</v>
+      </c>
+      <c r="B75" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C75" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C76" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>380</v>
+      </c>
+      <c r="B77" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C77" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>385</v>
+      </c>
+      <c r="B78" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C78" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>390</v>
+      </c>
+      <c r="B79" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C79" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>395</v>
+      </c>
+      <c r="B80" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C80" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>400</v>
+      </c>
+      <c r="B81" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C81" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>405</v>
+      </c>
+      <c r="B82" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C82" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>410</v>
+      </c>
+      <c r="B83" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C83" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>415</v>
+      </c>
+      <c r="B84" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C84" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>420</v>
+      </c>
+      <c r="B85" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C85" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>425</v>
+      </c>
+      <c r="B86" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C86" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>430</v>
+      </c>
+      <c r="B87" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C87" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>435</v>
+      </c>
+      <c r="B88" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C88" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C89" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>445</v>
+      </c>
+      <c r="B90" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C90" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>450</v>
+      </c>
+      <c r="B91" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C91" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>455</v>
+      </c>
+      <c r="B92" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C92" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>460</v>
+      </c>
+      <c r="B93" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C93" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>465</v>
+      </c>
+      <c r="B94" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C94" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>470</v>
+      </c>
+      <c r="B95" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C95" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C96" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>480</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>485</v>
+      </c>
+      <c r="B98" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C98" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>490</v>
+      </c>
+      <c r="B99" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>495</v>
+      </c>
+      <c r="B100" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C100" t="n">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>500</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32800</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31000</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,20 +621,9 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16500</v>
-      </c>
-      <c r="C3" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,9 +621,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>17600</v>
       </c>
       <c r="C2" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16700</v>
+      </c>
+      <c r="C4" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$4</f>
+              <f>'Kosten'!$B$2:$B$11</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$4</f>
+              <f>'Kosten'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>17000</v>
+        <v>18100</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -643,9 +643,86 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16700</v>
+        <v>18100</v>
       </c>
       <c r="C4" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18100</v>
+      </c>
+      <c r="C11" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$11</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$11</f>
+              <f>'Kosten'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$11</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$11</f>
+              <f>'Kosten'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>18200</v>
+        <v>16400</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -643,86 +643,9 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="C4" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18100</v>
-      </c>
-      <c r="C11" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$4</f>
+              <f>'Kosten'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$4</f>
+              <f>'Kosten'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>17600</v>
+        <v>16700</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>17000</v>
+        <v>16100</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -643,9 +643,31 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="C4" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16100</v>
+      </c>
+      <c r="C6" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$4</f>
+              <f>'Kosten'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$4</f>
+              <f>'Kosten'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16400</v>
+        <v>16800</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -643,9 +643,42 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="C4" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16400</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16300</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C7" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16800</v>
+        <v>17150</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="C4" t="n">
         <v>15500</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$7</f>
+              <f>'Kosten'!$B$2:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$7</f>
+              <f>'Kosten'!$C$2:$C$17</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>17150</v>
+        <v>16500</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="C4" t="n">
         <v>15500</v>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="C5" t="n">
         <v>15500</v>
@@ -665,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="C6" t="n">
         <v>15500</v>
@@ -679,6 +679,116 @@
         <v>16200</v>
       </c>
       <c r="C7" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16200</v>
+      </c>
+      <c r="C17" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$17</f>
+              <f>'Kosten'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$17</f>
+              <f>'Kosten'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$17</f>
+              <f>'Kosten'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$17</f>
+              <f>'Kosten'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>16400</v>
+        <v>20300</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16300</v>
+        <v>20000</v>
       </c>
       <c r="C4" t="n">
         <v>15500</v>
@@ -654,141 +654,9 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>16300</v>
+        <v>19700</v>
       </c>
       <c r="C5" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B14" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>70</v>
-      </c>
-      <c r="B15" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>75</v>
-      </c>
-      <c r="B16" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15500</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>80</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16200</v>
-      </c>
-      <c r="C17" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$5</f>
+              <f>'Kosten'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$5</f>
+              <f>'Kosten'!$B$2:$B$100</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$5</f>
+              <f>'Kosten'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$5</f>
+              <f>'Kosten'!$C$2:$C$100</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>21000</v>
+        <v>23100</v>
       </c>
       <c r="C2" t="n">
         <v>15500</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="C3" t="n">
         <v>15500</v>
@@ -654,9 +654,1054 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="C5" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19800</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>190</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C39" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C40" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C41" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C42" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>210</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C43" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>225</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C46" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>230</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C47" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>240</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>245</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C50" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C51" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>255</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>260</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C53" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>265</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>270</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>275</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C56" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>280</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C57" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>285</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C58" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>290</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>295</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C61" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>305</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C62" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>310</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>315</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>320</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>325</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C66" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>330</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>335</v>
+      </c>
+      <c r="B68" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C68" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>340</v>
+      </c>
+      <c r="B69" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C69" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>345</v>
+      </c>
+      <c r="B70" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C70" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>350</v>
+      </c>
+      <c r="B71" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>355</v>
+      </c>
+      <c r="B72" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C72" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>360</v>
+      </c>
+      <c r="B73" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C73" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>365</v>
+      </c>
+      <c r="B74" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>370</v>
+      </c>
+      <c r="B75" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C75" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>380</v>
+      </c>
+      <c r="B77" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>385</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>390</v>
+      </c>
+      <c r="B79" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>395</v>
+      </c>
+      <c r="B80" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>400</v>
+      </c>
+      <c r="B81" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>405</v>
+      </c>
+      <c r="B82" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>410</v>
+      </c>
+      <c r="B83" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>415</v>
+      </c>
+      <c r="B84" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>420</v>
+      </c>
+      <c r="B85" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>425</v>
+      </c>
+      <c r="B86" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>430</v>
+      </c>
+      <c r="B87" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>435</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>445</v>
+      </c>
+      <c r="B90" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>450</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>455</v>
+      </c>
+      <c r="B92" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>460</v>
+      </c>
+      <c r="B93" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>465</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>470</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C95" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C96" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>480</v>
+      </c>
+      <c r="B97" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>485</v>
+      </c>
+      <c r="B98" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>490</v>
+      </c>
+      <c r="B99" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C99" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>495</v>
+      </c>
+      <c r="B100" t="n">
+        <v>19700</v>
+      </c>
+      <c r="C100" t="n">
         <v>15500</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>17000</v>
+        <v>9800</v>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>9800</v>
+        <v>2700</v>
       </c>
       <c r="C2" t="n">
         <v>800</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="C2" t="n">
         <v>800</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C2" t="n">
         <v>1200</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1800</v>
+        <v>12900</v>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>-9100</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>12900</v>
+        <v>14600</v>
       </c>
       <c r="C2" t="n">
-        <v>-9100</v>
+        <v>-7400</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>14600</v>
+        <v>5300</v>
       </c>
       <c r="C2" t="n">
-        <v>-7400</v>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5300</v>
+        <v>10000</v>
       </c>
       <c r="C2" t="n">
-        <v>2700</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>10000</v>
+        <v>15100</v>
       </c>
       <c r="C2" t="n">
-        <v>4800</v>
+        <v>4400</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>15100</v>
+        <v>13100</v>
       </c>
       <c r="C2" t="n">
-        <v>4400</v>
+        <v>13100</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,9 +621,20 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
+        <v>13900</v>
+      </c>
+      <c r="C2" t="n">
         <v>13100</v>
       </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13100</v>
+      </c>
+      <c r="C3" t="n">
         <v>13100</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2:$B$14</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2:$C$14</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>13900</v>
+        <v>28600</v>
       </c>
       <c r="C2" t="n">
-        <v>13100</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,131 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>13100</v>
+        <v>25000</v>
       </c>
       <c r="C3" t="n">
-        <v>13100</v>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23800</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23800</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>23800</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23800</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23800</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3400</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$14</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$14</f>
+              <f>'Kosten'!$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$14</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$14</f>
+              <f>'Kosten'!$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,142 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>28600</v>
+        <v>9200</v>
       </c>
       <c r="C2" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>25000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>24300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>23800</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23800</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>23800</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" t="n">
-        <v>23800</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B14" t="n">
-        <v>23800</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3400</v>
+        <v>6600</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>9200</v>
+        <v>39600</v>
       </c>
       <c r="C2" t="n">
-        <v>6600</v>
+        <v>-23100</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,263 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>39600</v>
+        <v>162950</v>
       </c>
       <c r="C2" t="n">
-        <v>-23100</v>
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>161250</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>160650</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>160350</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>160300</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>160250</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>159850</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>159750</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>159750</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>159650</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-123450</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>159550</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-123450</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$25</f>
+              <f>'Kosten'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$25</f>
+              <f>'Kosten'!$B$2:$B$6</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$25</f>
+              <f>'Kosten'!$A$2:$A$6</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$25</f>
+              <f>'Kosten'!$C$2:$C$6</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>162950</v>
+        <v>19250</v>
       </c>
       <c r="C2" t="n">
-        <v>-123450</v>
+        <v>15150</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>161250</v>
+        <v>16450</v>
       </c>
       <c r="C3" t="n">
-        <v>-123450</v>
+        <v>15150</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>160650</v>
+        <v>15850</v>
       </c>
       <c r="C4" t="n">
-        <v>-123450</v>
+        <v>15150</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>160350</v>
+        <v>15850</v>
       </c>
       <c r="C5" t="n">
-        <v>-123450</v>
+        <v>15150</v>
       </c>
     </row>
     <row r="6">
@@ -665,219 +665,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>160300</v>
+        <v>15750</v>
       </c>
       <c r="C6" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>160250</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B14" t="n">
-        <v>159850</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>70</v>
-      </c>
-      <c r="B15" t="n">
-        <v>159750</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>75</v>
-      </c>
-      <c r="B16" t="n">
-        <v>159750</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>80</v>
-      </c>
-      <c r="B17" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>85</v>
-      </c>
-      <c r="B18" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>90</v>
-      </c>
-      <c r="B19" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>95</v>
-      </c>
-      <c r="B20" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>100</v>
-      </c>
-      <c r="B21" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>105</v>
-      </c>
-      <c r="B22" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>110</v>
-      </c>
-      <c r="B23" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>115</v>
-      </c>
-      <c r="B24" t="n">
-        <v>159650</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-123450</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>120</v>
-      </c>
-      <c r="B25" t="n">
-        <v>159550</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-123450</v>
+        <v>15150</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>19250</v>
+        <v>17150</v>
       </c>
       <c r="C2" t="n">
         <v>15150</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>16450</v>
+        <v>16650</v>
       </c>
       <c r="C3" t="n">
         <v>15150</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>15850</v>
+        <v>15950</v>
       </c>
       <c r="C4" t="n">
         <v>15150</v>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>15850</v>
+        <v>15950</v>
       </c>
       <c r="C5" t="n">
         <v>15150</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$6</f>
+              <f>'Kosten'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$6</f>
+              <f>'Kosten'!$B$2:$B$14</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$6</f>
+              <f>'Kosten'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$6</f>
+              <f>'Kosten'!$C$2:$C$14</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>17150</v>
+        <v>33850</v>
       </c>
       <c r="C2" t="n">
         <v>15150</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>16650</v>
+        <v>30250</v>
       </c>
       <c r="C3" t="n">
         <v>15150</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>15950</v>
+        <v>28950</v>
       </c>
       <c r="C4" t="n">
         <v>15150</v>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>15950</v>
+        <v>26950</v>
       </c>
       <c r="C5" t="n">
         <v>15150</v>
@@ -665,9 +665,97 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
+        <v>25950</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24450</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16350</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15850</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15850</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15850</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15850</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15850</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
         <v>15750</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C14" t="n">
         <v>15150</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$14</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$14</f>
+              <f>'Kosten'!$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$14</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$14</f>
+              <f>'Kosten'!$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,141 +621,9 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>33850</v>
+        <v>53550</v>
       </c>
       <c r="C2" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30250</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>28950</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>26950</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>25950</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>24450</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16350</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15850</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15850</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>50</v>
-      </c>
-      <c r="B11" t="n">
-        <v>15850</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>15850</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" t="n">
-        <v>15850</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>65</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15750</v>
-      </c>
-      <c r="C14" t="n">
         <v>15150</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>53550</v>
+        <v>25350</v>
       </c>
       <c r="C2" t="n">
-        <v>15150</v>
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14950</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14950</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2:$C$9</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>25350</v>
+        <v>31650</v>
       </c>
       <c r="C2" t="n">
         <v>14950</v>
@@ -632,9 +632,75 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
+        <v>31250</v>
+      </c>
+      <c r="C3" t="n">
         <v>14950</v>
       </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30450</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>29150</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15950</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15550</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15150</v>
+      </c>
+      <c r="C9" t="n">
         <v>14950</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$9</f>
+              <f>'Kosten'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$9</f>
+              <f>'Kosten'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$9</f>
+              <f>'Kosten'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$9</f>
+              <f>'Kosten'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>31250</v>
+        <v>29550</v>
       </c>
       <c r="C3" t="n">
         <v>14950</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>30450</v>
+        <v>27850</v>
       </c>
       <c r="C4" t="n">
         <v>14950</v>
@@ -654,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>29150</v>
+        <v>24850</v>
       </c>
       <c r="C5" t="n">
         <v>14950</v>
@@ -665,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>22100</v>
+        <v>22750</v>
       </c>
       <c r="C6" t="n">
         <v>14950</v>
@@ -676,31 +676,9 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>15950</v>
+        <v>15150</v>
       </c>
       <c r="C7" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15550</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15150</v>
-      </c>
-      <c r="C9" t="n">
         <v>14950</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$7</f>
+              <f>'Kosten'!$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$7</f>
+              <f>'Kosten'!$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,65 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>31650</v>
+        <v>2200</v>
       </c>
       <c r="C2" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>29550</v>
-      </c>
-      <c r="C3" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>27850</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>24850</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>22750</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14950</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15150</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14950</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="C2" t="n">
         <v>1400</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="C2" t="n">
         <v>1400</v>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="C2" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1800</v>
+        <v>8200</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>5900</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>8200</v>
+        <v>21500</v>
       </c>
       <c r="C2" t="n">
-        <v>5900</v>
+        <v>6500</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>21500</v>
+        <v>2450</v>
       </c>
       <c r="C2" t="n">
-        <v>6500</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>21500</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>6500</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$3</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$3</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,21 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>7450</v>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7450</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7200</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$3</f>
+              <f>'Kosten'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$3</f>
+              <f>'Kosten'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$3</f>
+              <f>'Kosten'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7450</v>
+        <v>61214</v>
       </c>
       <c r="C2" t="n">
-        <v>7200</v>
+        <v>17350</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,54 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>7450</v>
+        <v>33416</v>
       </c>
       <c r="C3" t="n">
-        <v>7200</v>
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18758</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17359</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17350</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$7</f>
+              <f>'Kosten'!$B$2:$B$5</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2:$A$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$7</f>
+              <f>'Kosten'!$C$2:$C$5</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>61214</v>
+        <v>48358</v>
       </c>
       <c r="C2" t="n">
-        <v>17350</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>33416</v>
+        <v>44757</v>
       </c>
       <c r="C3" t="n">
-        <v>17350</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>18758</v>
+        <v>44751</v>
       </c>
       <c r="C4" t="n">
-        <v>17350</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="5">
@@ -654,32 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>18758</v>
+        <v>44750</v>
       </c>
       <c r="C5" t="n">
-        <v>17350</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18758</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17350</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17359</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17350</v>
+        <v>18050</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$7</f>
+              <f>'Kosten'!$B$2:$B$30</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$7</f>
+              <f>'Kosten'!$C$2:$C$30</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>61214</v>
+        <v>35850</v>
       </c>
       <c r="C2" t="n">
-        <v>17350</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>33416</v>
+        <v>35850</v>
       </c>
       <c r="C3" t="n">
-        <v>17350</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>18758</v>
+        <v>35850</v>
       </c>
       <c r="C4" t="n">
-        <v>17350</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>18758</v>
+        <v>35850</v>
       </c>
       <c r="C5" t="n">
-        <v>17350</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>18758</v>
+        <v>35850</v>
       </c>
       <c r="C6" t="n">
-        <v>17350</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,263 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>17359</v>
+        <v>35850</v>
       </c>
       <c r="C7" t="n">
-        <v>17350</v>
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35850</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15100</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$30</f>
+              <f>'Kosten'!$A$2:$A$161</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$30</f>
+              <f>'Kosten'!$B$2:$B$161</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$30</f>
+              <f>'Kosten'!$A$2:$A$161</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$30</f>
+              <f>'Kosten'!$C$2:$C$161</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C2" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C3" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C4" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C5" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C6" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C7" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +687,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C8" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +698,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C9" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +709,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C10" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +720,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C11" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +731,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C12" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +742,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C13" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +753,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C14" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +764,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C15" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +775,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C16" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +786,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C17" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +797,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C18" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +808,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C19" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +819,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C20" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C21" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +841,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C22" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +852,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C23" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C24" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C25" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +885,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C26" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C27" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +907,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C28" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +918,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C29" t="n">
-        <v>15100</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +929,1451 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>35850</v>
+        <v>37800</v>
       </c>
       <c r="C30" t="n">
-        <v>15100</v>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C31" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C32" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C33" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C35" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C36" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>185</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>190</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>195</v>
+      </c>
+      <c r="B40" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>200</v>
+      </c>
+      <c r="B41" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C41" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>205</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>210</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>215</v>
+      </c>
+      <c r="B44" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>220</v>
+      </c>
+      <c r="B45" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>225</v>
+      </c>
+      <c r="B46" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C46" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>230</v>
+      </c>
+      <c r="B47" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C47" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>235</v>
+      </c>
+      <c r="B48" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>240</v>
+      </c>
+      <c r="B49" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C49" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>245</v>
+      </c>
+      <c r="B50" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C50" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C51" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>255</v>
+      </c>
+      <c r="B52" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>260</v>
+      </c>
+      <c r="B53" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C53" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>265</v>
+      </c>
+      <c r="B54" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>270</v>
+      </c>
+      <c r="B55" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C55" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>275</v>
+      </c>
+      <c r="B56" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C56" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>280</v>
+      </c>
+      <c r="B57" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>285</v>
+      </c>
+      <c r="B58" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C58" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>290</v>
+      </c>
+      <c r="B59" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C59" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>295</v>
+      </c>
+      <c r="B60" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C60" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>300</v>
+      </c>
+      <c r="B61" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>305</v>
+      </c>
+      <c r="B62" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>310</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C63" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>315</v>
+      </c>
+      <c r="B64" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>320</v>
+      </c>
+      <c r="B65" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C65" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>325</v>
+      </c>
+      <c r="B66" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C66" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>330</v>
+      </c>
+      <c r="B67" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C67" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>335</v>
+      </c>
+      <c r="B68" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C68" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>340</v>
+      </c>
+      <c r="B69" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C69" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>345</v>
+      </c>
+      <c r="B70" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C70" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>350</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C71" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>355</v>
+      </c>
+      <c r="B72" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C72" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>360</v>
+      </c>
+      <c r="B73" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C73" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>365</v>
+      </c>
+      <c r="B74" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C74" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>370</v>
+      </c>
+      <c r="B75" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C75" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>380</v>
+      </c>
+      <c r="B77" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C77" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>385</v>
+      </c>
+      <c r="B78" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C78" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>390</v>
+      </c>
+      <c r="B79" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C79" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>395</v>
+      </c>
+      <c r="B80" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C80" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>400</v>
+      </c>
+      <c r="B81" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C81" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>405</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C82" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>410</v>
+      </c>
+      <c r="B83" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C83" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>415</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C84" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>420</v>
+      </c>
+      <c r="B85" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C85" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>425</v>
+      </c>
+      <c r="B86" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C86" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>430</v>
+      </c>
+      <c r="B87" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C87" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>435</v>
+      </c>
+      <c r="B88" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C88" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>440</v>
+      </c>
+      <c r="B89" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C89" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>445</v>
+      </c>
+      <c r="B90" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C90" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>450</v>
+      </c>
+      <c r="B91" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C91" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>455</v>
+      </c>
+      <c r="B92" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C92" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>460</v>
+      </c>
+      <c r="B93" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C93" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>465</v>
+      </c>
+      <c r="B94" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C94" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>470</v>
+      </c>
+      <c r="B95" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C95" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>475</v>
+      </c>
+      <c r="B96" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C96" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>480</v>
+      </c>
+      <c r="B97" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C97" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>485</v>
+      </c>
+      <c r="B98" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C98" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>490</v>
+      </c>
+      <c r="B99" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C99" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>495</v>
+      </c>
+      <c r="B100" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>500</v>
+      </c>
+      <c r="B101" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C101" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>505</v>
+      </c>
+      <c r="B102" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C102" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>510</v>
+      </c>
+      <c r="B103" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C103" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>515</v>
+      </c>
+      <c r="B104" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C104" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>520</v>
+      </c>
+      <c r="B105" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C105" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>525</v>
+      </c>
+      <c r="B106" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>530</v>
+      </c>
+      <c r="B107" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C107" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>535</v>
+      </c>
+      <c r="B108" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C108" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>540</v>
+      </c>
+      <c r="B109" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C109" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>545</v>
+      </c>
+      <c r="B110" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C110" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>550</v>
+      </c>
+      <c r="B111" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C111" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>555</v>
+      </c>
+      <c r="B112" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C112" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>560</v>
+      </c>
+      <c r="B113" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C113" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>565</v>
+      </c>
+      <c r="B114" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C114" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>570</v>
+      </c>
+      <c r="B115" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C115" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>575</v>
+      </c>
+      <c r="B116" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C116" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>580</v>
+      </c>
+      <c r="B117" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C117" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>585</v>
+      </c>
+      <c r="B118" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C118" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>590</v>
+      </c>
+      <c r="B119" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C119" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>595</v>
+      </c>
+      <c r="B120" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C120" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>600</v>
+      </c>
+      <c r="B121" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C121" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>605</v>
+      </c>
+      <c r="B122" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C122" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>610</v>
+      </c>
+      <c r="B123" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C123" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>615</v>
+      </c>
+      <c r="B124" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C124" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>620</v>
+      </c>
+      <c r="B125" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C125" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>625</v>
+      </c>
+      <c r="B126" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C126" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>630</v>
+      </c>
+      <c r="B127" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C127" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>635</v>
+      </c>
+      <c r="B128" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C128" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>640</v>
+      </c>
+      <c r="B129" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C129" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>645</v>
+      </c>
+      <c r="B130" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C130" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>650</v>
+      </c>
+      <c r="B131" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C131" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>655</v>
+      </c>
+      <c r="B132" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C132" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>660</v>
+      </c>
+      <c r="B133" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C133" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>665</v>
+      </c>
+      <c r="B134" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C134" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>670</v>
+      </c>
+      <c r="B135" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C135" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>675</v>
+      </c>
+      <c r="B136" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C136" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>680</v>
+      </c>
+      <c r="B137" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C137" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>685</v>
+      </c>
+      <c r="B138" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C138" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>690</v>
+      </c>
+      <c r="B139" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>695</v>
+      </c>
+      <c r="B140" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>700</v>
+      </c>
+      <c r="B141" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>705</v>
+      </c>
+      <c r="B142" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>710</v>
+      </c>
+      <c r="B143" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>715</v>
+      </c>
+      <c r="B144" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>720</v>
+      </c>
+      <c r="B145" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>725</v>
+      </c>
+      <c r="B146" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>730</v>
+      </c>
+      <c r="B147" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C147" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>735</v>
+      </c>
+      <c r="B148" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C148" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>740</v>
+      </c>
+      <c r="B149" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C149" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>745</v>
+      </c>
+      <c r="B150" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C150" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>750</v>
+      </c>
+      <c r="B151" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C151" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>755</v>
+      </c>
+      <c r="B152" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C152" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>760</v>
+      </c>
+      <c r="B153" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C153" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>765</v>
+      </c>
+      <c r="B154" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C154" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>770</v>
+      </c>
+      <c r="B155" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C155" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>775</v>
+      </c>
+      <c r="B156" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>780</v>
+      </c>
+      <c r="B157" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C157" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>785</v>
+      </c>
+      <c r="B158" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C158" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>790</v>
+      </c>
+      <c r="B159" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>795</v>
+      </c>
+      <c r="B160" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C160" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>800</v>
+      </c>
+      <c r="B161" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C161" t="n">
+        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$161</f>
+              <f>'Kosten'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$161</f>
+              <f>'Kosten'!$B$2:$B$120</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$161</f>
+              <f>'Kosten'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$161</f>
+              <f>'Kosten'!$C$2:$C$120</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>37800</v>
+        <v>200750</v>
       </c>
       <c r="C2" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>37800</v>
+        <v>146000</v>
       </c>
       <c r="C3" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>37800</v>
+        <v>130750</v>
       </c>
       <c r="C4" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>37800</v>
+        <v>130000</v>
       </c>
       <c r="C5" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>37800</v>
+        <v>125250</v>
       </c>
       <c r="C6" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>37800</v>
+        <v>102800</v>
       </c>
       <c r="C7" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +687,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>37800</v>
+        <v>81850</v>
       </c>
       <c r="C8" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +698,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>37800</v>
+        <v>81850</v>
       </c>
       <c r="C9" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +709,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>37800</v>
+        <v>81850</v>
       </c>
       <c r="C10" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +720,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>37800</v>
+        <v>81600</v>
       </c>
       <c r="C11" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +731,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>37800</v>
+        <v>81100</v>
       </c>
       <c r="C12" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +742,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>37800</v>
+        <v>79850</v>
       </c>
       <c r="C13" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +753,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>37800</v>
+        <v>79850</v>
       </c>
       <c r="C14" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +764,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>37800</v>
+        <v>79600</v>
       </c>
       <c r="C15" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +775,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>37800</v>
+        <v>74100</v>
       </c>
       <c r="C16" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +786,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>37800</v>
+        <v>69350</v>
       </c>
       <c r="C17" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +797,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>37800</v>
+        <v>69100</v>
       </c>
       <c r="C18" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +808,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>37800</v>
+        <v>68350</v>
       </c>
       <c r="C19" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +819,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>37800</v>
+        <v>67600</v>
       </c>
       <c r="C20" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>37800</v>
+        <v>67600</v>
       </c>
       <c r="C21" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +841,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>37800</v>
+        <v>67600</v>
       </c>
       <c r="C22" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +852,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>37800</v>
+        <v>67100</v>
       </c>
       <c r="C23" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>37800</v>
+        <v>51500</v>
       </c>
       <c r="C24" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>37800</v>
+        <v>51250</v>
       </c>
       <c r="C25" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="26">
@@ -885,10 +885,10 @@
         <v>125</v>
       </c>
       <c r="B26" t="n">
-        <v>37800</v>
+        <v>51000</v>
       </c>
       <c r="C26" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="n">
-        <v>37800</v>
+        <v>51000</v>
       </c>
       <c r="C27" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="28">
@@ -907,10 +907,10 @@
         <v>135</v>
       </c>
       <c r="B28" t="n">
-        <v>37800</v>
+        <v>51000</v>
       </c>
       <c r="C28" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="29">
@@ -918,10 +918,10 @@
         <v>140</v>
       </c>
       <c r="B29" t="n">
-        <v>37800</v>
+        <v>51000</v>
       </c>
       <c r="C29" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="30">
@@ -929,10 +929,10 @@
         <v>145</v>
       </c>
       <c r="B30" t="n">
-        <v>37800</v>
+        <v>50750</v>
       </c>
       <c r="C30" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="31">
@@ -940,10 +940,10 @@
         <v>150</v>
       </c>
       <c r="B31" t="n">
-        <v>37800</v>
+        <v>50750</v>
       </c>
       <c r="C31" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="32">
@@ -951,10 +951,10 @@
         <v>155</v>
       </c>
       <c r="B32" t="n">
-        <v>37800</v>
+        <v>50750</v>
       </c>
       <c r="C32" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="33">
@@ -962,10 +962,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C33" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="34">
@@ -973,10 +973,10 @@
         <v>165</v>
       </c>
       <c r="B34" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C34" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +984,10 @@
         <v>170</v>
       </c>
       <c r="B35" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C35" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="36">
@@ -995,10 +995,10 @@
         <v>175</v>
       </c>
       <c r="B36" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C36" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="37">
@@ -1006,10 +1006,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C37" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="38">
@@ -1017,10 +1017,10 @@
         <v>185</v>
       </c>
       <c r="B38" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C38" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="39">
@@ -1028,10 +1028,10 @@
         <v>190</v>
       </c>
       <c r="B39" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C39" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="40">
@@ -1039,10 +1039,10 @@
         <v>195</v>
       </c>
       <c r="B40" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C40" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="41">
@@ -1050,10 +1050,10 @@
         <v>200</v>
       </c>
       <c r="B41" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C41" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="42">
@@ -1061,10 +1061,10 @@
         <v>205</v>
       </c>
       <c r="B42" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C42" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="43">
@@ -1072,10 +1072,10 @@
         <v>210</v>
       </c>
       <c r="B43" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C43" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="44">
@@ -1083,10 +1083,10 @@
         <v>215</v>
       </c>
       <c r="B44" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C44" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="45">
@@ -1094,10 +1094,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C45" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="46">
@@ -1105,10 +1105,10 @@
         <v>225</v>
       </c>
       <c r="B46" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C46" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="47">
@@ -1116,10 +1116,10 @@
         <v>230</v>
       </c>
       <c r="B47" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C47" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="48">
@@ -1127,10 +1127,10 @@
         <v>235</v>
       </c>
       <c r="B48" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C48" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="49">
@@ -1138,10 +1138,10 @@
         <v>240</v>
       </c>
       <c r="B49" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C49" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="50">
@@ -1149,10 +1149,10 @@
         <v>245</v>
       </c>
       <c r="B50" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C50" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="51">
@@ -1160,10 +1160,10 @@
         <v>250</v>
       </c>
       <c r="B51" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C51" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="52">
@@ -1171,10 +1171,10 @@
         <v>255</v>
       </c>
       <c r="B52" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C52" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="53">
@@ -1182,10 +1182,10 @@
         <v>260</v>
       </c>
       <c r="B53" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C53" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="54">
@@ -1193,10 +1193,10 @@
         <v>265</v>
       </c>
       <c r="B54" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C54" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="55">
@@ -1204,10 +1204,10 @@
         <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C55" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="56">
@@ -1215,10 +1215,10 @@
         <v>275</v>
       </c>
       <c r="B56" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C56" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="57">
@@ -1226,10 +1226,10 @@
         <v>280</v>
       </c>
       <c r="B57" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C57" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1237,10 @@
         <v>285</v>
       </c>
       <c r="B58" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C58" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="59">
@@ -1248,10 +1248,10 @@
         <v>290</v>
       </c>
       <c r="B59" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C59" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="60">
@@ -1259,10 +1259,10 @@
         <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C60" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="61">
@@ -1270,10 +1270,10 @@
         <v>300</v>
       </c>
       <c r="B61" t="n">
-        <v>37800</v>
+        <v>50500</v>
       </c>
       <c r="C61" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="62">
@@ -1281,10 +1281,10 @@
         <v>305</v>
       </c>
       <c r="B62" t="n">
-        <v>37800</v>
+        <v>49750</v>
       </c>
       <c r="C62" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="63">
@@ -1292,10 +1292,10 @@
         <v>310</v>
       </c>
       <c r="B63" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C63" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="64">
@@ -1303,10 +1303,10 @@
         <v>315</v>
       </c>
       <c r="B64" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C64" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="65">
@@ -1314,10 +1314,10 @@
         <v>320</v>
       </c>
       <c r="B65" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C65" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="66">
@@ -1325,10 +1325,10 @@
         <v>325</v>
       </c>
       <c r="B66" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C66" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="67">
@@ -1336,10 +1336,10 @@
         <v>330</v>
       </c>
       <c r="B67" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C67" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="68">
@@ -1347,10 +1347,10 @@
         <v>335</v>
       </c>
       <c r="B68" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C68" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         <v>340</v>
       </c>
       <c r="B69" t="n">
-        <v>37800</v>
+        <v>49250</v>
       </c>
       <c r="C69" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="70">
@@ -1369,10 +1369,10 @@
         <v>345</v>
       </c>
       <c r="B70" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C70" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="71">
@@ -1380,10 +1380,10 @@
         <v>350</v>
       </c>
       <c r="B71" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C71" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="72">
@@ -1391,10 +1391,10 @@
         <v>355</v>
       </c>
       <c r="B72" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C72" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="73">
@@ -1402,10 +1402,10 @@
         <v>360</v>
       </c>
       <c r="B73" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C73" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="74">
@@ -1413,10 +1413,10 @@
         <v>365</v>
       </c>
       <c r="B74" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C74" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="75">
@@ -1424,10 +1424,10 @@
         <v>370</v>
       </c>
       <c r="B75" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C75" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="76">
@@ -1435,10 +1435,10 @@
         <v>375</v>
       </c>
       <c r="B76" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C76" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="77">
@@ -1446,10 +1446,10 @@
         <v>380</v>
       </c>
       <c r="B77" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C77" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="78">
@@ -1457,10 +1457,10 @@
         <v>385</v>
       </c>
       <c r="B78" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C78" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="79">
@@ -1468,10 +1468,10 @@
         <v>390</v>
       </c>
       <c r="B79" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C79" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="80">
@@ -1479,10 +1479,10 @@
         <v>395</v>
       </c>
       <c r="B80" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C80" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="81">
@@ -1490,10 +1490,10 @@
         <v>400</v>
       </c>
       <c r="B81" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C81" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="82">
@@ -1501,10 +1501,10 @@
         <v>405</v>
       </c>
       <c r="B82" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C82" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="83">
@@ -1512,10 +1512,10 @@
         <v>410</v>
       </c>
       <c r="B83" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C83" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         <v>415</v>
       </c>
       <c r="B84" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C84" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="85">
@@ -1534,10 +1534,10 @@
         <v>420</v>
       </c>
       <c r="B85" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C85" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="86">
@@ -1545,10 +1545,10 @@
         <v>425</v>
       </c>
       <c r="B86" t="n">
-        <v>37800</v>
+        <v>48750</v>
       </c>
       <c r="C86" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="87">
@@ -1556,10 +1556,10 @@
         <v>430</v>
       </c>
       <c r="B87" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C87" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="88">
@@ -1567,10 +1567,10 @@
         <v>435</v>
       </c>
       <c r="B88" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C88" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="89">
@@ -1578,10 +1578,10 @@
         <v>440</v>
       </c>
       <c r="B89" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C89" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +1589,10 @@
         <v>445</v>
       </c>
       <c r="B90" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C90" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="91">
@@ -1600,10 +1600,10 @@
         <v>450</v>
       </c>
       <c r="B91" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C91" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="92">
@@ -1611,10 +1611,10 @@
         <v>455</v>
       </c>
       <c r="B92" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C92" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="93">
@@ -1622,10 +1622,10 @@
         <v>460</v>
       </c>
       <c r="B93" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C93" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="94">
@@ -1633,10 +1633,10 @@
         <v>465</v>
       </c>
       <c r="B94" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C94" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="95">
@@ -1644,10 +1644,10 @@
         <v>470</v>
       </c>
       <c r="B95" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C95" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="96">
@@ -1655,10 +1655,10 @@
         <v>475</v>
       </c>
       <c r="B96" t="n">
-        <v>37800</v>
+        <v>48250</v>
       </c>
       <c r="C96" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="97">
@@ -1666,10 +1666,10 @@
         <v>480</v>
       </c>
       <c r="B97" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C97" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="98">
@@ -1677,10 +1677,10 @@
         <v>485</v>
       </c>
       <c r="B98" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C98" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="99">
@@ -1688,10 +1688,10 @@
         <v>490</v>
       </c>
       <c r="B99" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C99" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="100">
@@ -1699,10 +1699,10 @@
         <v>495</v>
       </c>
       <c r="B100" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C100" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="101">
@@ -1710,10 +1710,10 @@
         <v>500</v>
       </c>
       <c r="B101" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C101" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="102">
@@ -1721,10 +1721,10 @@
         <v>505</v>
       </c>
       <c r="B102" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C102" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="103">
@@ -1732,10 +1732,10 @@
         <v>510</v>
       </c>
       <c r="B103" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C103" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="104">
@@ -1743,10 +1743,10 @@
         <v>515</v>
       </c>
       <c r="B104" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C104" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="105">
@@ -1754,10 +1754,10 @@
         <v>520</v>
       </c>
       <c r="B105" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C105" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="106">
@@ -1765,10 +1765,10 @@
         <v>525</v>
       </c>
       <c r="B106" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C106" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="107">
@@ -1776,10 +1776,10 @@
         <v>530</v>
       </c>
       <c r="B107" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C107" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="108">
@@ -1787,10 +1787,10 @@
         <v>535</v>
       </c>
       <c r="B108" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C108" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="109">
@@ -1798,10 +1798,10 @@
         <v>540</v>
       </c>
       <c r="B109" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C109" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="110">
@@ -1809,10 +1809,10 @@
         <v>545</v>
       </c>
       <c r="B110" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C110" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="111">
@@ -1820,10 +1820,10 @@
         <v>550</v>
       </c>
       <c r="B111" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C111" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="112">
@@ -1831,10 +1831,10 @@
         <v>555</v>
       </c>
       <c r="B112" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C112" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="113">
@@ -1842,10 +1842,10 @@
         <v>560</v>
       </c>
       <c r="B113" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C113" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="114">
@@ -1853,10 +1853,10 @@
         <v>565</v>
       </c>
       <c r="B114" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C114" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="115">
@@ -1864,10 +1864,10 @@
         <v>570</v>
       </c>
       <c r="B115" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C115" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="116">
@@ -1875,10 +1875,10 @@
         <v>575</v>
       </c>
       <c r="B116" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C116" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="117">
@@ -1886,10 +1886,10 @@
         <v>580</v>
       </c>
       <c r="B117" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C117" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="118">
@@ -1897,10 +1897,10 @@
         <v>585</v>
       </c>
       <c r="B118" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C118" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="119">
@@ -1908,10 +1908,10 @@
         <v>590</v>
       </c>
       <c r="B119" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C119" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="120">
@@ -1919,461 +1919,10 @@
         <v>595</v>
       </c>
       <c r="B120" t="n">
-        <v>37800</v>
+        <v>47250</v>
       </c>
       <c r="C120" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>600</v>
-      </c>
-      <c r="B121" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C121" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>605</v>
-      </c>
-      <c r="B122" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C122" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>610</v>
-      </c>
-      <c r="B123" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C123" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>615</v>
-      </c>
-      <c r="B124" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C124" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>620</v>
-      </c>
-      <c r="B125" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C125" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>625</v>
-      </c>
-      <c r="B126" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C126" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>630</v>
-      </c>
-      <c r="B127" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C127" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>635</v>
-      </c>
-      <c r="B128" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C128" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>640</v>
-      </c>
-      <c r="B129" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C129" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>645</v>
-      </c>
-      <c r="B130" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C130" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>650</v>
-      </c>
-      <c r="B131" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C131" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>655</v>
-      </c>
-      <c r="B132" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C132" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>660</v>
-      </c>
-      <c r="B133" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C133" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>665</v>
-      </c>
-      <c r="B134" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C134" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>670</v>
-      </c>
-      <c r="B135" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C135" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>675</v>
-      </c>
-      <c r="B136" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C136" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>680</v>
-      </c>
-      <c r="B137" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C137" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>685</v>
-      </c>
-      <c r="B138" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C138" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>690</v>
-      </c>
-      <c r="B139" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C139" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>695</v>
-      </c>
-      <c r="B140" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C140" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>700</v>
-      </c>
-      <c r="B141" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C141" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>705</v>
-      </c>
-      <c r="B142" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C142" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>710</v>
-      </c>
-      <c r="B143" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C143" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>715</v>
-      </c>
-      <c r="B144" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C144" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>720</v>
-      </c>
-      <c r="B145" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C145" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>725</v>
-      </c>
-      <c r="B146" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C146" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>730</v>
-      </c>
-      <c r="B147" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C147" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>735</v>
-      </c>
-      <c r="B148" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C148" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>740</v>
-      </c>
-      <c r="B149" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C149" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>745</v>
-      </c>
-      <c r="B150" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C150" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>750</v>
-      </c>
-      <c r="B151" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C151" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>755</v>
-      </c>
-      <c r="B152" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C152" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>760</v>
-      </c>
-      <c r="B153" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C153" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>765</v>
-      </c>
-      <c r="B154" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C154" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>770</v>
-      </c>
-      <c r="B155" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C155" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>775</v>
-      </c>
-      <c r="B156" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C156" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>780</v>
-      </c>
-      <c r="B157" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C157" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>785</v>
-      </c>
-      <c r="B158" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C158" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>790</v>
-      </c>
-      <c r="B159" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C159" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>795</v>
-      </c>
-      <c r="B160" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C160" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>800</v>
-      </c>
-      <c r="B161" t="n">
-        <v>37800</v>
-      </c>
-      <c r="C161" t="n">
-        <v>16000</v>
+        <v>27500</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$7</f>
+              <f>'Kosten'!$B$2</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$7</f>
+              <f>'Kosten'!$A$2</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$7</f>
+              <f>'Kosten'!$C$2</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,65 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>269500</v>
+        <v>16950</v>
       </c>
       <c r="C2" t="n">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" t="n">
-        <v>234500</v>
-      </c>
-      <c r="C3" t="n">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>201250</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20</v>
-      </c>
-      <c r="B5" t="n">
-        <v>190750</v>
-      </c>
-      <c r="C5" t="n">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B6" t="n">
-        <v>168250</v>
-      </c>
-      <c r="C6" t="n">
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="n">
-        <v>160250</v>
-      </c>
-      <c r="C7" t="n">
-        <v>27500</v>
+        <v>16200</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$4</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$4</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,32 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16950</v>
+        <v>233750</v>
       </c>
       <c r="C2" t="n">
-        <v>16200</v>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>228000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>228000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27500</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2</f>
+              <f>'Kosten'!$B$2:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2</f>
+              <f>'Kosten'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2</f>
+              <f>'Kosten'!$C$2:$C$13</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,9 +621,130 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>16950</v>
+        <v>17700</v>
       </c>
       <c r="C2" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17450</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>17450</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17450</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17450</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17450</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17450</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C13" t="n">
         <v>16200</v>
       </c>
     </row>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$4</f>
+              <f>'Kosten'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$4</f>
+              <f>'Kosten'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$4</f>
+              <f>'Kosten'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>233750</v>
+        <v>18450</v>
       </c>
       <c r="C2" t="n">
-        <v>27500</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>228000</v>
+        <v>17200</v>
       </c>
       <c r="C3" t="n">
-        <v>27500</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,241 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>228000</v>
+        <v>17200</v>
       </c>
       <c r="C4" t="n">
-        <v>27500</v>
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>95</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>105</v>
+      </c>
+      <c r="B22" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>110</v>
+      </c>
+      <c r="B23" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>115</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>120</v>
+      </c>
+      <c r="B25" t="n">
+        <v>17200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16200</v>
       </c>
     </row>
   </sheetData>

--- a/Kostenanalyse.xlsx
+++ b/Kostenanalyse.xlsx
@@ -169,12 +169,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$25</f>
+              <f>'Kosten'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$B$2:$B$25</f>
+              <f>'Kosten'!$B$2:$B$37</f>
             </numRef>
           </val>
         </ser>
@@ -201,12 +201,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Kosten'!$A$2:$A$25</f>
+              <f>'Kosten'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Kosten'!$C$2:$C$25</f>
+              <f>'Kosten'!$C$2:$C$37</f>
             </numRef>
           </val>
         </ser>
@@ -591,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>18450</v>
+        <v>149250</v>
       </c>
       <c r="C2" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="3">
@@ -632,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>17200</v>
+        <v>145000</v>
       </c>
       <c r="C3" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>17200</v>
+        <v>129850</v>
       </c>
       <c r="C4" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="5">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>17200</v>
+        <v>112900</v>
       </c>
       <c r="C5" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>17200</v>
+        <v>104950</v>
       </c>
       <c r="C6" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>17200</v>
+        <v>99350</v>
       </c>
       <c r="C7" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="8">
@@ -687,10 +687,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>17200</v>
+        <v>94600</v>
       </c>
       <c r="C8" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="9">
@@ -698,10 +698,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>17200</v>
+        <v>85850</v>
       </c>
       <c r="C9" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="10">
@@ -709,10 +709,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>17200</v>
+        <v>84400</v>
       </c>
       <c r="C10" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="11">
@@ -720,10 +720,10 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>17200</v>
+        <v>79150</v>
       </c>
       <c r="C11" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="12">
@@ -731,10 +731,10 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>17200</v>
+        <v>47250</v>
       </c>
       <c r="C12" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="13">
@@ -742,10 +742,10 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>17200</v>
+        <v>46600</v>
       </c>
       <c r="C13" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="14">
@@ -753,10 +753,10 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>17200</v>
+        <v>45350</v>
       </c>
       <c r="C14" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="15">
@@ -764,10 +764,10 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>17200</v>
+        <v>43500</v>
       </c>
       <c r="C15" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="16">
@@ -775,10 +775,10 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>17200</v>
+        <v>43000</v>
       </c>
       <c r="C16" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="17">
@@ -786,10 +786,10 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>17200</v>
+        <v>40950</v>
       </c>
       <c r="C17" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="18">
@@ -797,10 +797,10 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>17200</v>
+        <v>40950</v>
       </c>
       <c r="C18" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="19">
@@ -808,10 +808,10 @@
         <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>17200</v>
+        <v>40550</v>
       </c>
       <c r="C19" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="20">
@@ -819,10 +819,10 @@
         <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>17200</v>
+        <v>40550</v>
       </c>
       <c r="C20" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="21">
@@ -830,10 +830,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>17200</v>
+        <v>40550</v>
       </c>
       <c r="C21" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="22">
@@ -841,10 +841,10 @@
         <v>105</v>
       </c>
       <c r="B22" t="n">
-        <v>17200</v>
+        <v>40550</v>
       </c>
       <c r="C22" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="23">
@@ -852,10 +852,10 @@
         <v>110</v>
       </c>
       <c r="B23" t="n">
-        <v>17200</v>
+        <v>40550</v>
       </c>
       <c r="C23" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>17200</v>
+        <v>40550</v>
       </c>
       <c r="C24" t="n">
-        <v>16200</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,142 @@
         <v>120</v>
       </c>
       <c r="B25" t="n">
-        <v>17200</v>
+        <v>40050</v>
       </c>
       <c r="C25" t="n">
-        <v>16200</v>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>125</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C26" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>135</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>140</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>145</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>155</v>
+      </c>
+      <c r="B32" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C32" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>160</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>165</v>
+      </c>
+      <c r="B34" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C34" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>170</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C35" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>175</v>
+      </c>
+      <c r="B36" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>180</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40050</v>
+      </c>
+      <c r="C37" t="n">
+        <v>27500</v>
       </c>
     </row>
   </sheetData>
